--- a/ONCHO/Breeding Site Survey/Congo/cg_oncho_bsc_1_site_202010.xlsx
+++ b/ONCHO/Breeding Site Survey/Congo/cg_oncho_bsc_1_site_202010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\ONCHO\Breeding Site Survey\Congo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B75BF57C-DBA0-41D8-B57C-F92C3243610F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF083BA8-11B3-49D0-9F53-3456F32B915E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,9 +245,6 @@
     <t>Nkayi</t>
   </si>
   <si>
-    <t>cg_oncho_bsc_1_site_202010</t>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
@@ -314,9 +311,6 @@
     <t>. &gt; 0 and . &lt; 80</t>
   </si>
   <si>
-    <t>1. Prospection des gîtes larvaires</t>
-  </si>
-  <si>
     <t>N° de l'équipe</t>
   </si>
   <si>
@@ -333,13 +327,19 @@
   </si>
   <si>
     <t>Le code doit être un nombre à deux chiffres entre 9 et 1000</t>
+  </si>
+  <si>
+    <t>cg_oncho_bsc_1_site_202010_v2</t>
+  </si>
+  <si>
+    <t>1. Prospection des gîtes larvaires V2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -398,6 +398,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -469,7 +476,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -539,6 +546,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -828,13 +836,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -853,7 +861,7 @@
     <col min="12" max="12" width="28.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
@@ -861,10 +869,10 @@
         <v>4</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>73</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>6</v>
@@ -873,7 +881,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>8</v>
@@ -890,8 +898,9 @@
       <c r="L1" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="M1" s="31"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>15</v>
       </c>
@@ -909,7 +918,7 @@
         <v>49</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -919,7 +928,7 @@
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>45</v>
       </c>
@@ -927,7 +936,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="13"/>
@@ -940,7 +949,7 @@
       </c>
       <c r="K3" s="13"/>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
@@ -948,7 +957,7 @@
         <v>31</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="15"/>
@@ -964,15 +973,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="15"/>
@@ -986,15 +995,15 @@
       <c r="K5" s="13"/>
       <c r="L5" s="14"/>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="15"/>
@@ -1008,7 +1017,7 @@
       <c r="K6" s="13"/>
       <c r="L6" s="14"/>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>42</v>
       </c>
@@ -1030,7 +1039,7 @@
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>42</v>
       </c>
@@ -1052,7 +1061,7 @@
       <c r="K8" s="13"/>
       <c r="L8" s="14"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>42</v>
       </c>
@@ -1060,7 +1069,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="15"/>
@@ -1074,7 +1083,7 @@
       <c r="K9" s="13"/>
       <c r="L9" s="14"/>
     </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>22</v>
       </c>
@@ -1098,15 +1107,15 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>88</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>89</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="11"/>
@@ -1120,23 +1129,23 @@
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="17"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="9" t="s">
@@ -1145,7 +1154,7 @@
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>42</v>
       </c>
@@ -1164,7 +1173,7 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>23</v>
       </c>
@@ -1181,7 +1190,7 @@
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>24</v>
       </c>
@@ -1198,7 +1207,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="D16" s="5"/>
       <c r="G16"/>
@@ -1225,7 +1234,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1245,7 +1254,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>47</v>
@@ -1587,46 +1596,46 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1644,7 +1653,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1670,13 +1679,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="C2">
-        <v>20201023</v>
+        <v>20201027</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
